--- a/JiraPack.xlsx
+++ b/JiraPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjubisht\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821EFAC2-767E-4AB0-A819-6D389D2B0ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6990E9B-BDA8-4E9D-A5CA-483ED3E0C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Not Required</t>
   </si>
 </sst>
 </file>
@@ -624,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>22</v>
       </c>
@@ -872,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>25</v>
       </c>
@@ -883,7 +886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>28</v>
       </c>
@@ -894,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>31</v>
       </c>
@@ -905,7 +908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>34</v>
       </c>
@@ -916,7 +919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>37</v>
       </c>
@@ -927,7 +930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>40</v>
       </c>
@@ -938,7 +941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>43</v>
       </c>
@@ -949,7 +952,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -968,8 +971,11 @@
       <c r="I25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>16</v>
       </c>
@@ -980,7 +986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>19</v>
       </c>
@@ -991,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>25</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>31</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>34</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>37</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>40</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>43</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1098,8 +1104,11 @@
       <c r="I36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>16</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>28</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>34</v>
       </c>
@@ -1176,7 +1185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>37</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>40</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>43</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>46</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>74</v>
       </c>
